--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>159.148172174514</v>
+        <v>170.7159602926703</v>
       </c>
       <c r="R2">
-        <v>1432.333549570626</v>
+        <v>1536.443642634033</v>
       </c>
       <c r="S2">
-        <v>0.0475532841261976</v>
+        <v>0.06486186313472145</v>
       </c>
       <c r="T2">
-        <v>0.04755328412619761</v>
+        <v>0.06486186313472145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>197.9150651547999</v>
+        <v>178.0839164057334</v>
       </c>
       <c r="R3">
-        <v>1781.2355863932</v>
+        <v>1602.7552476516</v>
       </c>
       <c r="S3">
-        <v>0.0591367855349348</v>
+        <v>0.06766124615766102</v>
       </c>
       <c r="T3">
-        <v>0.05913678553493481</v>
+        <v>0.06766124615766103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>148.290775700981</v>
+        <v>83.45462210364066</v>
       </c>
       <c r="R4">
-        <v>1334.616981308829</v>
+        <v>751.0915989327659</v>
       </c>
       <c r="S4">
-        <v>0.04430910700294081</v>
+        <v>0.03170776925347998</v>
       </c>
       <c r="T4">
-        <v>0.04430910700294082</v>
+        <v>0.03170776925347998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>24.013514234676</v>
+        <v>21.630283600611</v>
       </c>
       <c r="R5">
-        <v>216.121628112084</v>
+        <v>194.672552405499</v>
       </c>
       <c r="S5">
-        <v>0.007175209426960076</v>
+        <v>0.008218215169002435</v>
       </c>
       <c r="T5">
-        <v>0.007175209426960079</v>
+        <v>0.008218215169002435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>127.556237485826</v>
+        <v>61.685248196691</v>
       </c>
       <c r="R6">
-        <v>1148.006137372434</v>
+        <v>555.167233770219</v>
       </c>
       <c r="S6">
-        <v>0.03811365170176666</v>
+        <v>0.02343670807993503</v>
       </c>
       <c r="T6">
-        <v>0.03811365170176668</v>
+        <v>0.02343670807993503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>441.2653266780153</v>
+        <v>526.0492782376758</v>
       </c>
       <c r="R7">
-        <v>3971.387940102138</v>
+        <v>4734.443504139083</v>
       </c>
       <c r="S7">
-        <v>0.1318495535817368</v>
+        <v>0.1998672896703736</v>
       </c>
       <c r="T7">
-        <v>0.1318495535817369</v>
+        <v>0.1998672896703736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>548.7531191012887</v>
+        <v>548.7531191012889</v>
       </c>
       <c r="R8">
-        <v>4938.778071911599</v>
+        <v>4938.778071911601</v>
       </c>
       <c r="S8">
-        <v>0.1639667778222814</v>
+        <v>0.2084933924448509</v>
       </c>
       <c r="T8">
-        <v>0.1639667778222815</v>
+        <v>0.208493392444851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>411.1613516445308</v>
+        <v>257.1595745819851</v>
       </c>
       <c r="R9">
-        <v>3700.452164800777</v>
+        <v>2314.436171237866</v>
       </c>
       <c r="S9">
-        <v>0.1228545217284932</v>
+        <v>0.09770527080024902</v>
       </c>
       <c r="T9">
-        <v>0.1228545217284933</v>
+        <v>0.09770527080024902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>66.58154510145467</v>
+        <v>66.65220437896099</v>
       </c>
       <c r="R10">
-        <v>599.2339059130919</v>
+        <v>599.869839410649</v>
       </c>
       <c r="S10">
-        <v>0.01989448630486844</v>
+        <v>0.02532385460998555</v>
       </c>
       <c r="T10">
-        <v>0.01989448630486844</v>
+        <v>0.02532385460998555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>353.6713242441824</v>
+        <v>190.078773163041</v>
       </c>
       <c r="R11">
-        <v>3183.041918197642</v>
+        <v>1710.708958467369</v>
       </c>
       <c r="S11">
-        <v>0.1056765700747736</v>
+        <v>0.07221857492750354</v>
       </c>
       <c r="T11">
-        <v>0.1056765700747736</v>
+        <v>0.07221857492750354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>210.3754517329847</v>
+        <v>171.6238364383223</v>
       </c>
       <c r="R12">
-        <v>1893.379065596862</v>
+        <v>1544.614527944901</v>
       </c>
       <c r="S12">
-        <v>0.06285993419054697</v>
+        <v>0.06520680181650378</v>
       </c>
       <c r="T12">
-        <v>0.06285993419054697</v>
+        <v>0.06520680181650378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>261.6207944320444</v>
+        <v>179.0309757161333</v>
       </c>
       <c r="R13">
-        <v>2354.587149888399</v>
+        <v>1611.2787814452</v>
       </c>
       <c r="S13">
-        <v>0.07817198149977139</v>
+        <v>0.0680210721005097</v>
       </c>
       <c r="T13">
-        <v>0.07817198149977141</v>
+        <v>0.06802107210050971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>196.0232310536359</v>
+        <v>83.89843802174465</v>
       </c>
       <c r="R14">
-        <v>1764.209079482723</v>
+        <v>755.0859421957019</v>
       </c>
       <c r="S14">
-        <v>0.05857150776075065</v>
+        <v>0.03187639278046434</v>
       </c>
       <c r="T14">
-        <v>0.05857150776075066</v>
+        <v>0.03187639278046434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>31.74308467254533</v>
+        <v>21.74531454716699</v>
       </c>
       <c r="R15">
-        <v>285.6877620529079</v>
+        <v>195.707830924503</v>
       </c>
       <c r="S15">
-        <v>0.009484795859422541</v>
+        <v>0.008261920054585373</v>
       </c>
       <c r="T15">
-        <v>0.009484795859422543</v>
+        <v>0.008261920054585373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.483507</v>
+      </c>
+      <c r="N16">
+        <v>55.450521</v>
+      </c>
+      <c r="O16">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="P16">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="Q16">
+        <v>62.01329347892699</v>
+      </c>
+      <c r="R16">
+        <v>558.119641310343</v>
+      </c>
+      <c r="S16">
+        <v>0.02356134568360082</v>
+      </c>
+      <c r="T16">
+        <v>0.02356134568360082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>51.15371566666666</v>
+      </c>
+      <c r="N17">
+        <v>153.461147</v>
+      </c>
+      <c r="O17">
+        <v>0.3311207986511828</v>
+      </c>
+      <c r="P17">
+        <v>0.3311207986511828</v>
+      </c>
+      <c r="Q17">
+        <v>3.118501019425556</v>
+      </c>
+      <c r="R17">
+        <v>28.06650917483</v>
+      </c>
+      <c r="S17">
+        <v>0.001184844029584</v>
+      </c>
+      <c r="T17">
+        <v>0.001184844029584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N18">
+        <v>160.0844</v>
+      </c>
+      <c r="O18">
+        <v>0.3454116915964105</v>
+      </c>
+      <c r="P18">
+        <v>0.3454116915964106</v>
+      </c>
+      <c r="Q18">
+        <v>3.253092879555556</v>
+      </c>
+      <c r="R18">
+        <v>29.277835916</v>
+      </c>
+      <c r="S18">
+        <v>0.001235980893388846</v>
+      </c>
+      <c r="T18">
+        <v>0.001235980893388846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>34.39145933333333</v>
-      </c>
-      <c r="N16">
-        <v>103.174378</v>
-      </c>
-      <c r="O16">
-        <v>0.1941720551610951</v>
-      </c>
-      <c r="P16">
-        <v>0.1941720551610951</v>
-      </c>
-      <c r="Q16">
-        <v>168.6145729214842</v>
-      </c>
-      <c r="R16">
-        <v>1517.531156293358</v>
-      </c>
-      <c r="S16">
-        <v>0.05038183338455478</v>
-      </c>
-      <c r="T16">
-        <v>0.05038183338455479</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>25.00653133333333</v>
+      </c>
+      <c r="N19">
+        <v>75.019594</v>
+      </c>
+      <c r="O19">
+        <v>0.1618686447050176</v>
+      </c>
+      <c r="P19">
+        <v>0.1618686447050176</v>
+      </c>
+      <c r="Q19">
+        <v>1.524481505184444</v>
+      </c>
+      <c r="R19">
+        <v>13.72033354666</v>
+      </c>
+      <c r="S19">
+        <v>0.0005792118708243182</v>
+      </c>
+      <c r="T19">
+        <v>0.0005792118708243181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.481347</v>
+      </c>
+      <c r="N20">
+        <v>19.444041</v>
+      </c>
+      <c r="O20">
+        <v>0.0419541135381084</v>
+      </c>
+      <c r="P20">
+        <v>0.0419541135381084</v>
+      </c>
+      <c r="Q20">
+        <v>0.39512451761</v>
+      </c>
+      <c r="R20">
+        <v>3.55612065849</v>
+      </c>
+      <c r="S20">
+        <v>0.0001501237045350411</v>
+      </c>
+      <c r="T20">
+        <v>0.0001501237045350411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>18.483507</v>
+      </c>
+      <c r="N21">
+        <v>55.450521</v>
+      </c>
+      <c r="O21">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="P21">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="Q21">
+        <v>1.12681619841</v>
+      </c>
+      <c r="R21">
+        <v>10.14134578569</v>
+      </c>
+      <c r="S21">
+        <v>0.0004281228182412336</v>
+      </c>
+      <c r="T21">
+        <v>0.0004281228182412336</v>
       </c>
     </row>
   </sheetData>
